--- a/数据整理/stocks/A股/深证主板/002385-大北农.xlsx
+++ b/数据整理/stocks/A股/深证主板/002385-大北农.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005416</t>
+          <t>009394</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏华尊惠18个月定期开放混合A</t>
+          <t>银华同力精选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>34.90</t>
+          <t>67.71</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.6627</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005417</t>
+          <t>161810</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏华尊惠18个月定期开放混合C</t>
+          <t>银华内需精选混合(LOF)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>34.90</t>
+          <t>60.57</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.9480</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009394</t>
+          <t>003634</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>银华同力精选混合</t>
+          <t>嘉实农业产业股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.60</t>
+          <t>28.22</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>9.84</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5267</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002598</t>
+          <t>005106</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>平安消费精选混合A</t>
+          <t>银华农业产业股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>90.92</t>
+          <t>13.59</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>82.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6944</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002599</t>
+          <t>519918</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>平安消费精选混合C</t>
+          <t>华夏兴和混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>90.92</t>
+          <t>7.71</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6769</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001027</t>
+          <t>180020</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>前海开源中证大农业指数增强</t>
+          <t>银华成长先锋混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.95</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>78.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4119</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001195</t>
+          <t>001027</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>工银瑞信农业产业股票</t>
+          <t>前海开源中证大农业指数增强</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>88.44</t>
+          <t>8.15</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3342</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>003634</t>
+          <t>001195</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>嘉实农业产业股票</t>
+          <t>工银瑞信农业产业股票</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>90.61</t>
+          <t>10.21</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5.41</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3186</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005106</t>
+          <t>003165</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>银华农业产业股票</t>
+          <t>鹏华弘嘉灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>82.36</t>
+          <t>7.73</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5.11</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>5</v>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2226</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>161810</t>
+          <t>009230</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>银华内需精选混合(LOF)</t>
+          <t>鹏华安和混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>93.76</t>
+          <t>7.54</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>9.82</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
+          <t>34.97</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1214</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>519918</t>
+          <t>009667</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华夏兴和混合</t>
+          <t>鹏华安庆混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>90.60</t>
+          <t>7.28</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>8.78</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
+          <t>35.62</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1158</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -800,26 +920,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>002076</t>
+          <t>001940</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>浙商中证500指数增强A</t>
+          <t>农银汇理现代农业加灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>88.81</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>3</v>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0747</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -828,26 +958,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>180020</t>
+          <t>005416</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>银华成长先锋混合</t>
+          <t>鹏华尊惠18个月定期开放混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>78.07</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>9.49</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
+          <t>34.90</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -856,26 +996,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>005607</t>
+          <t>003751</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>华宝中证500指数增强A</t>
+          <t>万家瑞隆混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>6</v>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -884,26 +1034,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>005608</t>
+          <t>003626</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华宝中证500指数增强C</t>
+          <t>平安鑫利灵活配置混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>5.94</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>6</v>
+          <t>21.51</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -912,26 +1072,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>159932</t>
+          <t>004475</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>大成中证500深市ETF</t>
+          <t>华泰柏瑞富利灵活配置混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>98.44</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>10</v>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -940,26 +1110,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>006783</t>
+          <t>002076</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>红土创新中证500指数增强A</t>
+          <t>浙商中证500指数增强A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>94.06</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>7</v>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -968,26 +1148,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>006784</t>
+          <t>009231</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>红土创新中证500指数增强C</t>
+          <t>鹏华安和混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>94.06</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>7</v>
+          <t>34.97</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -996,26 +1186,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>007386</t>
+          <t>006433</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>浙商中证500指数增强C</t>
+          <t>平安鑫利灵活配置混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>88.81</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>3</v>
+          <t>21.51</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -1024,26 +1224,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>009230</t>
+          <t>005417</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>鹏华安和混合A</t>
+          <t>鹏华尊惠18个月定期开放混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>34.97</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>2</v>
+          <t>34.90</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -1052,25 +1262,35 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>009231</t>
+          <t>008778</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>鹏华安和混合C</t>
+          <t>嘉实中证500指数增强A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>34.97</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1080,25 +1300,35 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>009667</t>
+          <t>009668</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>鹏华安庆混合A</t>
+          <t>鹏华安庆混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>35.62</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1.59</t>
         </is>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1108,26 +1338,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>009668</t>
+          <t>700004</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>鹏华安庆混合C</t>
+          <t>平安灵活配置混合</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>35.62</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>3</v>
+          <t>77.44</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -1136,26 +1376,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>001940</t>
+          <t>003175</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>农银汇理现代农业加灵活配置混合</t>
+          <t>华泰柏瑞多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>7</v>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -1164,26 +1414,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>008778</t>
+          <t>006783</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>嘉实中证500指数增强A</t>
+          <t>红土创新中证500指数增强A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>91.61</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>2</v>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="27">
@@ -1192,26 +1452,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>008779</t>
+          <t>002598</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>嘉实中证500指数增强C</t>
+          <t>平安消费精选混合A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>91.61</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>2</v>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -1220,26 +1490,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>003165</t>
+          <t>007386</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>鹏华弘嘉灵活配置混合A</t>
+          <t>浙商中证500指数增强C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>89.32</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>4</v>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -1248,26 +1528,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>003166</t>
+          <t>008779</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>鹏华弘嘉灵活配置混合C</t>
+          <t>嘉实中证500指数增强C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>89.32</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>4</v>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -1276,26 +1566,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>003175</t>
+          <t>005607</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>华泰柏瑞多策略灵活配置混合</t>
+          <t>华宝中证500指数增强A</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>94.81</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>4</v>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="31">
@@ -1304,25 +1604,35 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>003626</t>
+          <t>159932</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>平安鑫利灵活配置混合A</t>
+          <t>大成中证500深市ETF</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>21.51</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
+          <t>98.44</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1332,25 +1642,35 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>700004</t>
+          <t>002599</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>平安灵活配置混合</t>
+          <t>平安消费精选混合C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>77.44</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1360,25 +1680,35 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>004475</t>
+          <t>003166</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>华泰柏瑞富利灵活配置混合</t>
+          <t>鹏华弘嘉灵活配置混合C</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>94.68</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1388,26 +1718,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>006433</t>
+          <t>005608</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>平安鑫利灵活配置混合C</t>
+          <t>华宝中证500指数增强C</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>21.51</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>10</v>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="35">
@@ -1416,26 +1756,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>003751</t>
+          <t>006784</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>万家瑞隆混合</t>
+          <t>红土创新中证500指数增强C</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>91.42</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>6.71</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>2</v>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1449,7 +1799,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1470,15 +1820,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009336</t>
+          <t>161810</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>平安中证500指数增强A</t>
+          <t>银华内需精选混合(LOF)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>33.99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2834</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009337</t>
+          <t>009394</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>平安中证500指数增强C</t>
+          <t>银华同力精选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>29.34</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7198</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009339</t>
+          <t>003634</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>万家民瑞祥和6个月持有期债券C</t>
+          <t>嘉实农业产业股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>22.69</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4771</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001027</t>
+          <t>519196</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>前海开源中证大农业指数增强</t>
+          <t>万家新兴蓝筹灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.63</t>
+          <t>15.42</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8944</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010769</t>
+          <t>005106</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天弘中证农业主题指数A</t>
+          <t>银华农业产业股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.95</t>
+          <t>11.64</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5610</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010770</t>
+          <t>180020</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天弘中证农业主题指数C</t>
+          <t>银华成长先锋混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.95</t>
+          <t>3.78</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3077</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1668,15 +2088,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>98.80</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>2.77</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2853</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>159827</t>
+          <t>001027</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>银华中证农业主题ETF</t>
+          <t>前海开源中证大农业指数增强</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>97.76</t>
+          <t>6.87</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2453</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>519196</t>
+          <t>003751</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>万家新兴蓝筹灵活配置混合</t>
+          <t>万家瑞隆混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>92.27</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5.80</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>3</v>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1064</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1752,15 +2202,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>76.81</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>5.14</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1770,26 +2230,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>161810</t>
+          <t>010769</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>银华内需精选混合(LOF)</t>
+          <t>天弘中证农业主题指数A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>94.75</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>9.66</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0747</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1798,26 +2268,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>005106</t>
+          <t>159827</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>银华农业产业股票</t>
+          <t>银华中证农业主题ETF</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>84.76</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>4</v>
+          <t>97.76</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -1826,26 +2306,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>180020</t>
+          <t>010770</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>银华成长先锋混合</t>
+          <t>天弘中证农业主题指数C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>79.48</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>8.14</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -1854,26 +2344,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>003634</t>
+          <t>009336</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>嘉实农业产业股票</t>
+          <t>平安中证500指数增强A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>91.61</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>6.51</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>5</v>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1882,26 +2382,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>003751</t>
+          <t>009337</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>万家瑞隆混合</t>
+          <t>平安中证500指数增强C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>94.01</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>7.09</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -1910,26 +2420,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>009394</t>
+          <t>009339</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>银华同力精选混合</t>
+          <t>万家民瑞祥和6个月持有期债券C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>94.66</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>9.27</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>1</v>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002385-大北农.xlsx
+++ b/数据整理/stocks/A股/深证主板/002385-大北农.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2455,4 +2456,668 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华内需精选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5989</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1081</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003634</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0414</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005106</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华农业产业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5511</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159825</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4881</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159865</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3117</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161834</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>74.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2717</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159867</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>97.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2628</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>180020</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>78.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2485</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010769</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1633</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010770</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1375</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>516760</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>平安中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>96.02</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1073</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501022</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>73.06</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1062</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003751</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.33</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0961</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159827</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银华中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>97.89</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0791</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>516670</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>96.88</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002385-大北农.xlsx
+++ b/数据整理/stocks/A股/深证主板/002385-大北农.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3120,4 +3121,972 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华内需精选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4185</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9660</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003634</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2286</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012412</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇泉策略优选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>35.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>39.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9326</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005106</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华农业产业股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8449</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009199</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家价值优势一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8293</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159865</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7681</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519196</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家新兴蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.81</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>72.18</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7569</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519181</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家和谐增长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>76.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6788</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161912</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14.48</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.66</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6559</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159825</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>19.61</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6197</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005094</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家臻选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5578</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159867</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>97.12</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4418</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519195</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家品质生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>76.80</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4383</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003751</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3749</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001027</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>前海开源中证大农业指数增强</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3014</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>180020</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银华成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>78.49</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2886</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010769</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2586</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001195</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银瑞信农业产业股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2193</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010770</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2105</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>516760</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>平安中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>97.35</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1401</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>516670</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0849</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159827</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银华中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0790</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>161913</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>80.66</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002385-大北农.xlsx
+++ b/数据整理/stocks/A股/深证主板/002385-大北农.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4089,4 +4090,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.609999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>34</v>
+      </c>
+      <c r="D5" t="n">
+        <v>17.45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002385-大北农.xlsx
+++ b/数据整理/stocks/A股/深证主板/002385-大北农.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4098,7 +4099,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4109,17 +4110,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4129,14 +4150,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15.12</v>
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华内需精选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5700</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -4145,14 +4188,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.609999999999999</v>
+          <t>003634</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3508</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -4161,14 +4226,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>16</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.17</v>
+          <t>012412</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇泉策略优选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>35.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1462</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -4177,13 +4264,2467 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0978</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519196</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家新兴蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8125</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009199</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家价值优势一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5465</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161912</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.54</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4499</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519195</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家品质生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.18</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.4311</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010326</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时消费创新混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>24.23</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.4199</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519181</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家和谐增长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14.65</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.3771</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159865</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>10.24</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.2360</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005106</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银华农业产业股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13.09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.1729</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001277</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>32.18</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.1102</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159825</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>26.10</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.0466</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005094</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家臻选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.50</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8894</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>161838</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.28</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7970</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501083</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银华科创主题 3 年封闭运作灵活配置混合型证券投资</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>19.17</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>67.88</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6479</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011817</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银华阿尔法混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>16.66</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>73.62</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4898</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012098</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏成长机会一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>19.82</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>48.34</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4836</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001579</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国泰大农业股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.97</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4417</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159867</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>96.92</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4290</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009011</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏睿阳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>22.02</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>70.25</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3391</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011733</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银华瑞祥一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>73.73</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3181</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010769</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>95.17</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3128</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001027</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>前海开源中证大农业指数增强</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3003</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>180020</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>银华成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>79.65</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2671</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005481</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>银华瑞泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2648</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003751</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2577</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010770</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>95.17</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2457</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002453</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>九泰久稳灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>12.44</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2053</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007141</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉合稳健增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>70.11</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2012</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010327</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博时消费创新混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1957</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>180018</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>银华和谐主题混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>74.49</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1807</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008671</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>银华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1773</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>516760</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>平安中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>97.32</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1484</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006424</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>嘉合锦程价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>81.77</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1280</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012987</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>嘉合锦明混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>37.80</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0996</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>516670</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>招商中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>98.84</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0951</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>004050</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>68.97</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0934</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>159827</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>银华中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>98.00</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0749</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006425</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>嘉合锦程价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>81.77</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009855</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>012988</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>嘉合锦明混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>37.80</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>161913</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001940</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>农银汇理现代农业加灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>71.63</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>164401</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>前海开源中证健康产业指数</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>516550</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>嘉实中证大农业ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005090</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>嘉合睿金定期开放灵活配置混合型发起式A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>007142</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>嘉合稳健增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>70.11</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>161715</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>招商中证大宗商品股票指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>003513</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中邮消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>82.79</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005091</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>嘉合睿金定期开放灵活配置混合型发起式C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>003842</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>003843</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010066</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005161</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华商上游产业股票</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>002907</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>004549</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>富安达消费主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>002906</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009856</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>159918</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>嘉实中创400ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>159932</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>大成中证500深市ETF</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>97.62</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>002454</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>九泰久稳灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010067</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>004051</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>68.97</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>65</v>
+      </c>
+      <c r="D2" t="n">
+        <v>31.4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.609999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>34</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>17.45</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002385-大北农.xlsx
+++ b/数据整理/stocks/A股/深证主板/002385-大北农.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6623,7 +6624,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6634,17 +6635,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6654,14 +6675,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>65</v>
-      </c>
-      <c r="D2" t="n">
-        <v>31.4</v>
+          <t>003751</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3219</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -6670,14 +6713,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>24</v>
-      </c>
-      <c r="D3" t="n">
-        <v>15.12</v>
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华内需精选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1828</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -6686,14 +6751,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>16</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.609999999999999</v>
+          <t>159865</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1207</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -6702,14 +6789,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>16</v>
-      </c>
-      <c r="D5" t="n">
-        <v>10.17</v>
+          <t>003634</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8092</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -6718,13 +6827,2257 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.7406</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519196</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家新兴蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>21.26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5031</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010326</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时消费创新混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3433</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009199</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家价值优势一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.70</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2823</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>161912</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.56</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.2028</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519195</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家品质生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.66</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.87</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1868</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005106</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华农业产业股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.24</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0817</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159825</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>29.76</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.63</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0505</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519181</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家和谐增长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.51</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9726</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519001</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银华核心价值优选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>29.70</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8732</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012412</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇泉策略优选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>23.52</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>70.35</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8114</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005094</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>万家臻选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13.43</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>73.12</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7373</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>161838</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银华创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.44</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>95.40</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7204</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>501083</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银华科创主题 3 年封闭运作灵活配置混合型证券投资</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>15.88</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>59.30</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6765</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159867</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>97.87</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4774</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005821</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>万家新机遇龙头企业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>23.23</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>56.20</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4646</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001579</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国泰大农业股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11.72</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3668</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011733</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银华瑞祥一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>72.47</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3065</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010770</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>95.31</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2800</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010769</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>95.31</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2767</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>180020</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银华成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>79.81</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2559</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005481</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>银华瑞泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2520</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001027</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>前海开源中证大农业指数增强</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2493</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>014107</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>69.12</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2158</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010327</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博时消费创新混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1838</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>180018</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>银华和谐主题混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>72.51</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1812</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>180013</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>银华领先策略混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1810</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004505</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博时新兴消费主题混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1780</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008671</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>银华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.23</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1554</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>014299</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>泰达宏利先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>74.64</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1321</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>516760</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>平安中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>97.82</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1232</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001277</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>博时国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1152</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>970023</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>天风天盈一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>39.47</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0986</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>516670</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>招商中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0911</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>159827</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>银华中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>97.33</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001728</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>银华战略新兴灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002252</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>融通成长30灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>78.26</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001940</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>农银汇理现代农业加灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>64.68</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011431</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>81.15</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>161913</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>516550</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>嘉实中证大农业ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>180028</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>银华永祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>77.23</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008842</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009855</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>014108</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>博时品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>69.12</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009856</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>159932</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>大成中证500深市ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>97.30</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>014300</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>泰达宏利先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>74.64</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011432</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>81.15</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>008843</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>004212</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中融量化智选混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>002453</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>九泰久稳灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>002454</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>九泰久稳灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>004783</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中融量化智选混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010066</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010067</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>60</v>
+      </c>
+      <c r="D2" t="n">
+        <v>28.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>65</v>
+      </c>
+      <c r="D3" t="n">
+        <v>31.4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15.12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.609999999999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>16</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10.17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>34</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>17.45</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002385-大北农.xlsx
+++ b/数据整理/stocks/A股/深证主板/002385-大北农.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8960,7 +8961,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8971,17 +8972,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8991,14 +9012,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>60</v>
-      </c>
-      <c r="D2" t="n">
-        <v>28.6</v>
+          <t>159865</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0758</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -9007,14 +9050,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>65</v>
-      </c>
-      <c r="D3" t="n">
-        <v>31.4</v>
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华内需精选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3431</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -9023,14 +9088,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>24</v>
-      </c>
-      <c r="D4" t="n">
-        <v>15.12</v>
+          <t>003634</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9659</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -9039,14 +9126,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>16</v>
-      </c>
-      <c r="D5" t="n">
-        <v>8.609999999999999</v>
+          <t>003751</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8290</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -9055,14 +9164,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>16</v>
-      </c>
-      <c r="D6" t="n">
-        <v>10.17</v>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.47</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6394</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -9071,13 +9202,1587 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>519195</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家品质生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>26.60</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5162</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519196</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家新兴蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3486</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010326</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时消费创新混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>19.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2060</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009199</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家价值优势一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1511</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005106</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银华农业产业股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0160</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005094</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家臻选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>15.61</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0037</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519181</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家和谐增长混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8730</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161912</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7973</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>161838</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银华创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.45</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6657</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501083</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银华科创主题 3 年封闭运作灵活配置混合型证券投资</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>16.68</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>62.24</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6072</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159867</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>97.70</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5147</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011733</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银华瑞祥一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.99</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3350</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>516670</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2741</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>015468</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2473</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005481</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银华瑞泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2260</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>160211</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国泰中小盘成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1836</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>516760</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>平安中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>98.31</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1683</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004505</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时新兴消费主题混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1678</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014107</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.24</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1669</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010327</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时消费创新混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1658</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>180018</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>银华和谐主题混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>77.24</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1631</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>519655</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>银河现代服务主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1482</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008671</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>银华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1399</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>015384</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1334</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>180020</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>银华成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>79.33</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1227</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001277</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博时国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1030</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001940</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>农银汇理现代农业加灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>81.80</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>014064</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>银华农业产业股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003300</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏圆和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>81.65</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>161913</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009096</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>鹏华安泽混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>21.17</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>013472</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华宝中证全指农牧渔指数C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>013471</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华宝中证全指农牧渔指数A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>014108</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博时品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.24</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>015068</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华夏圆和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>81.65</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>014382</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>博时国企改革主题股票C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009097</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鹏华安泽混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>21.17</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011879</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>博时新兴消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>43</v>
+      </c>
+      <c r="D2" t="n">
+        <v>24.48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>60</v>
+      </c>
+      <c r="D3" t="n">
+        <v>28.6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>65</v>
+      </c>
+      <c r="D4" t="n">
+        <v>31.4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>24</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15.12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>16</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.609999999999999</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>16</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10.17</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>34</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>17.45</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002385-大北农.xlsx
+++ b/数据整理/stocks/A股/深证主板/002385-大北农.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="D2" t="n">
-        <v>24.48</v>
+        <v>26.48</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D3" t="n">
-        <v>28.6</v>
+        <v>24.48</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D4" t="n">
-        <v>31.4</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="D5" t="n">
-        <v>15.12</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D6" t="n">
-        <v>8.609999999999999</v>
+        <v>15.12</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>16</v>
       </c>
       <c r="D7" t="n">
-        <v>10.17</v>
+        <v>8.609999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>16</v>
+      </c>
+      <c r="D8" t="n">
+        <v>10.17</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>34</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>17.45</v>
       </c>
     </row>
@@ -600,6 +617,2826 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H74"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159865</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2752</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华内需精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2649</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003634</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9276</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6798</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519195</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家品质生活灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>30.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>69.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5367</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003751</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4366</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519196</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家新兴蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3252</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010326</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时消费创新混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2346</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009199</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家价值优势一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1793</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005106</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银华农业产业股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0788</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005094</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家臻选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.86</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>74.84</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0301</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>161912</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7876</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>016954</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家和谐增长混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7288</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159825</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>19.08</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.18</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6258</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>015468</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.79</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5324</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159867</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>97.38</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4885</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>161838</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银华创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>96.33</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4268</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001579</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国泰大农业股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>12.15</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3973</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>516670</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3872</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011733</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银华瑞祥一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3434</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>501083</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银华科创主题灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2934</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004505</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时新兴消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>79.90</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2460</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005481</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银华瑞泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.17</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2311</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005274</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中银景福回报混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10.39</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>23.39</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2213</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001027</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>前海开源中证大农业指数增强A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2195</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010327</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时消费创新混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.24</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1998</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013326</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>万家景气驱动混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1833</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>180020</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>银华成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>79.28</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1780</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>180018</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>银华和谐主题混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>72.77</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1668</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>015384</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1502</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010770</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1421</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>516760</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>平安中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1390</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>014107</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>博时品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1301</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008671</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>银华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1049</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>162203</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>泰达宏利稳定混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0914</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007318</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中银民丰回报混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>22.58</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0849</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001277</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>博时国企改革主题股票A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>85.79</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0816</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>014064</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>银华农业产业股票C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0674</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010769</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002535</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中银鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>23.75</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>014299</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>泰达宏利先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>516810</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华夏中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>163823</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中银稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>45.80</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>003300</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华夏圆和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>75.31</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0567</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006952</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中银景元回报混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>26.13</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001940</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>农银汇理现代农业加灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>74.84</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008773</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中银景泰回报混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>22.68</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>008491</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>万家周期优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>159616</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>建信中证农牧主题ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>98.38</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>159827</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>银华中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>96.86</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>013327</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>万家景气驱动混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>161913</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>015068</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华夏圆和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>75.31</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>562900</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>易方达中证现代农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>97.55</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>002844</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>金鹰多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>002288</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中银稳进策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>64.79</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>016600</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>万家品质生活灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>69.02</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>013472</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华宝中证全指农牧渔指数C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>008492</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>万家周期优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>015484</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>前海开源中证大农业指数增强C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>013471</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华宝中证全指农牧渔指数A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>014108</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>博时品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>002020</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>国都创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>65.45</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>002536</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中银鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>23.75</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>159932</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>大成中证500深市ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>95.99</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>014300</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>泰达宏利先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>561150</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>富国中证500ESG基准ETF</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>015588</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>国泰大农业股票C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>014382</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>博时国企改革主题股票C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>85.79</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>011879</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>博时新兴消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>79.90</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>015089</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>中银景福回报混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>23.39</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>016520</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>中银稳进策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>64.79</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>519181</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>万家和谐增长混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2287,7 +5124,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4623,7 +7460,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7147,7 +9984,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8108,670 +10945,6 @@
       </c>
       <c r="H25" t="n">
         <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>161810</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>银华内需精选混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>30.15</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.18</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>8.62</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.5989</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009394</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>银华同力精选混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>25.74</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.35</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.19</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.1081</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>003634</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>嘉实农业产业股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>21.08</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>84.27</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.0414</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005106</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>银华农业产业股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>11.27</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>82.20</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.5511</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>159825</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>富国中证农业主题ETF</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>17.75</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>99.10</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.4881</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>159865</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>国泰中证畜牧养殖ETF</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>98.45</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>7.02</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.3117</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>161834</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>银华鑫锐灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>6.61</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>74.94</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.2717</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>159867</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>鹏华中证畜牧养殖ETF</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>97.08</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6.99</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.2628</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>180020</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>银华成长先锋混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>78.83</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>6.68</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.2485</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>010769</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>天弘中证农业主题指数A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>6.21</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.81</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1633</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>010770</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>天弘中证农业主题指数C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>5.23</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.81</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1375</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>516760</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>平安中证畜牧养殖ETF</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>96.02</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>6.88</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1073</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>501022</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>银华鑫盛灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>73.06</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1062</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>003751</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>万家瑞隆混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>81.33</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0961</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>159827</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>银华中证农业主题ETF</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>97.89</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0791</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>516670</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>招商中证畜牧养殖ETF</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>96.88</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>6.45</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0381</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -8846,26 +11019,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>33.99</t>
+          <t>30.15</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.75</t>
+          <t>94.18</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.66</t>
+          <t>8.62</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.2834</t>
+          <t>2.5989</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -8884,26 +11057,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>29.34</t>
+          <t>25.74</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.66</t>
+          <t>94.35</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.27</t>
+          <t>8.19</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.7198</t>
+          <t>2.1081</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -8922,26 +11095,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>22.69</t>
+          <t>21.08</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.61</t>
+          <t>84.27</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.51</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.4771</t>
+          <t>1.0414</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -8950,36 +11123,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>519196</t>
+          <t>005106</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>万家新兴蓝筹灵活配置混合</t>
+          <t>银华农业产业股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>15.42</t>
+          <t>11.27</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.27</t>
+          <t>82.20</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.80</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.8944</t>
+          <t>0.5511</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -8988,36 +11161,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005106</t>
+          <t>159825</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>银华农业产业股票</t>
+          <t>富国中证农业主题ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>11.64</t>
+          <t>17.75</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>84.76</t>
+          <t>99.10</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.5610</t>
+          <t>0.4881</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -9026,36 +11199,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>180020</t>
+          <t>159865</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>银华成长先锋混合</t>
+          <t>国泰中证畜牧养殖ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>79.48</t>
+          <t>98.45</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>8.14</t>
+          <t>7.02</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.3077</t>
+          <t>0.3117</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -9064,36 +11237,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>159825</t>
+          <t>161834</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>富国中证农业主题ETF</t>
+          <t>银华鑫锐灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>10.30</t>
+          <t>6.61</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>98.80</t>
+          <t>74.94</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2853</t>
+          <t>0.2717</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -9102,36 +11275,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001027</t>
+          <t>159867</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>前海开源中证大农业指数增强</t>
+          <t>鹏华中证畜牧养殖ETF</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>6.87</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.63</t>
+          <t>97.08</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>6.99</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.2453</t>
+          <t>0.2628</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -9140,36 +11313,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>003751</t>
+          <t>180020</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>万家瑞隆混合</t>
+          <t>银华成长先锋混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.01</t>
+          <t>78.83</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>7.09</t>
+          <t>6.68</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1064</t>
+          <t>0.2485</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -9178,36 +11351,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001940</t>
+          <t>010769</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>农银汇理现代农业加灵活配置混合</t>
+          <t>天弘中证农业主题指数A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>6.21</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>76.81</t>
+          <t>94.81</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.14</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0792</t>
+          <t>0.1633</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -9216,36 +11389,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>010769</t>
+          <t>010770</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>天弘中证农业主题指数A</t>
+          <t>天弘中证农业主题指数C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>5.23</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>93.95</t>
+          <t>94.81</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0747</t>
+          <t>0.1375</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -9254,36 +11427,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>159827</t>
+          <t>516760</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>银华中证农业主题ETF</t>
+          <t>平安中证畜牧养殖ETF</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>97.76</t>
+          <t>96.02</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>6.88</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0734</t>
+          <t>0.1073</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -9292,36 +11465,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>010770</t>
+          <t>501022</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>天弘中证农业主题指数C</t>
+          <t>银华鑫盛灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>93.95</t>
+          <t>73.06</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0590</t>
+          <t>0.1062</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -9330,36 +11503,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>009336</t>
+          <t>003751</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>平安中证500指数增强A</t>
+          <t>万家瑞隆混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>81.33</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0027</t>
+          <t>0.0961</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -9368,32 +11541,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>009337</t>
+          <t>159827</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>平安中证500指数增强C</t>
+          <t>银华中证农业主题ETF</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>97.89</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0013</t>
+          <t>0.0791</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -9406,36 +11579,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>009339</t>
+          <t>516670</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>万家民瑞祥和6个月持有期债券C</t>
+          <t>招商中证畜牧养殖ETF</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>96.88</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>6.45</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0006</t>
+          <t>0.0381</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -9444,6 +11617,670 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华内需精选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33.99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2834</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7198</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003634</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4771</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519196</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家新兴蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8944</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005106</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华农业产业股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5610</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>180020</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3077</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159825</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2853</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001027</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源中证大农业指数增强</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2453</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003751</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1064</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001940</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>农银汇理现代农业加灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>76.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010769</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0747</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159827</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银华中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>97.76</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010770</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009336</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009337</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009339</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>万家民瑞祥和6个月持有期债券C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002385-大北农.xlsx
+++ b/数据整理/stocks/A股/深证主板/002385-大北农.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="D2" t="n">
-        <v>26.48</v>
+        <v>26.54</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="D3" t="n">
-        <v>24.48</v>
+        <v>26.48</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D4" t="n">
-        <v>28.6</v>
+        <v>24.48</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D5" t="n">
-        <v>31.4</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="D6" t="n">
-        <v>15.12</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D7" t="n">
-        <v>8.609999999999999</v>
+        <v>15.12</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>16</v>
       </c>
       <c r="D8" t="n">
-        <v>10.17</v>
+        <v>8.609999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>16</v>
+      </c>
+      <c r="D9" t="n">
+        <v>10.17</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>34</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>17.45</v>
       </c>
     </row>
@@ -616,7 +633,4791 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>67.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.6627</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华内需精选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>60.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.9480</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003634</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5267</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005106</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华农业产业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.59</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6944</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519918</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏兴和混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6769</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>180020</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4119</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001027</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源中证大农业指数增强</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3342</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001195</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信农业产业股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.21</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3186</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003165</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2226</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009230</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华安和混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>34.97</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1214</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009667</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>35.62</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1158</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001940</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>农银汇理现代农业加灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0747</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005416</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>34.90</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003751</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003626</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>21.51</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004475</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002076</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009231</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华安和混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>34.97</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006433</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>21.51</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>34.90</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008778</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>35.62</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>700004</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>平安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>77.44</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003175</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006783</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002598</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>平安消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007386</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008779</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005607</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>159932</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>大成中证500深市ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>98.44</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002599</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>平安消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>003166</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005608</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006784</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H90"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159865</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8371</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华内需精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2260</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003634</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1837</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7364</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003751</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3586</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519196</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家新兴蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.60</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2323</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005094</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家臻选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.57</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1450</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009199</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家价值优势一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.21</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1331</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519756</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>交银施罗德国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>45.60</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.35</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1263</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005106</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银华农业产业股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.40</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0875</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161912</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7882</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519181</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家和谐增长混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7144</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159825</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>19.23</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6961</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>161834</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>29.40</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5498</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010326</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时消费创新混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>14.23</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5436</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>015468</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5360</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>516670</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4884</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001579</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国泰大农业股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4583</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>161838</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银华创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>95.23</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4446</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159867</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>97.53</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4181</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011733</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银华瑞祥一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3825</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001042</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏领先股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10.89</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3561</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>015384</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2876</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005481</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>银华瑞泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2455</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001027</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>前海开源中证大农业指数增强A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2431</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>501083</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>银华科创主题灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2331</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013326</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>万家景气驱动混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1987</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>180020</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>银华成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>78.61</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1979</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010852</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1973</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>180018</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>银华和谐主题混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>77.64</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1856</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>017289</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>泰达宏利首选企业股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1841</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010770</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>95.05</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1758</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>161818</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>银华消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1733</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>516760</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>平安中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1226</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>014107</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>博时品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1141</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>162203</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>泰达宏利稳定混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1025</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>014064</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>银华农业产业股票C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0982</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010327</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>博时消费创新混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0875</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005620</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0868</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>003300</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华夏圆和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>81.15</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010769</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>95.05</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>015305</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>银华鑫峰混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>84.61</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0742</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>516810</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华夏中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001940</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>农银汇理现代农业加灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>73.78</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>014299</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>泰达宏利先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002212</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>嘉实新起航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>79.36</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005621</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>014349</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008491</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>万家周期优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>159616</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>建信中证农牧主题ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>97.58</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>159827</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>银华中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>98.13</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002844</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>金鹰多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>516550</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>嘉实中证大农业ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>163823</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中银稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>31.34</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011471</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>鹏华致远成长混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>60.84</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010853</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>161913</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>013262</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>西部利得个股精选股票C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>673090</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>西部利得个股精选股票A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>562900</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>易方达中证现代农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>98.41</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>013327</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>万家景气驱动混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>006952</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中银景元回报混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>015306</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>银华鑫峰混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>84.61</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>000845</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>国投瑞银信息消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>013472</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华宝中证全指农牧渔指数C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>014346</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>银华消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>008492</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>万家周期优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>015484</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>前海开源中证大农业指数增强C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>015068</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华夏圆和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>81.15</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>013471</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华宝中证全指农牧渔指数A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>003805</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>华安新恒利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>23.86</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>004680</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>前海开源裕瑞混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>20.77</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>159918</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>嘉实中创400ETF</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>98.55</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>015588</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>国泰大农业股票C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>014108</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>博时品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>004456</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>兴银消费新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>80.92</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>006346</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>安信量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>014300</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>泰达宏利先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>006190</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>前海开源裕瑞混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>20.77</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>006611</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>人保中证500指数</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>006347</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>安信量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>001866</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>北信瑞丰新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>011472</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>鹏华致远成长混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>60.84</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>510550</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>方正富邦中证500ETF</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>96.81</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>016954</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>万家和谐增长混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>510570</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>兴业中证500ETF</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>97.48</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>016264</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>嘉实新起航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>79.36</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>003806</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>华安新恒利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>23.86</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>162208</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>泰达宏利首选企业股票A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3436,7 +8237,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5124,7 +9925,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7460,7 +12261,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9984,7 +14785,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10945,670 +15746,6 @@
       </c>
       <c r="H25" t="n">
         <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>161810</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>银华内需精选混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>30.15</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.18</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>8.62</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.5989</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009394</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>银华同力精选混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>25.74</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.35</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.19</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.1081</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>003634</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>嘉实农业产业股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>21.08</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>84.27</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.0414</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005106</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>银华农业产业股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>11.27</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>82.20</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.5511</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>159825</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>富国中证农业主题ETF</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>17.75</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>99.10</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.4881</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>159865</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>国泰中证畜牧养殖ETF</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>98.45</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>7.02</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.3117</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>161834</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>银华鑫锐灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>6.61</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>74.94</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.2717</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>159867</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>鹏华中证畜牧养殖ETF</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>97.08</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6.99</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.2628</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>180020</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>银华成长先锋混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>78.83</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>6.68</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.2485</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>010769</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>天弘中证农业主题指数A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>6.21</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.81</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1633</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>010770</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>天弘中证农业主题指数C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>5.23</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.81</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1375</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>516760</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>平安中证畜牧养殖ETF</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>96.02</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>6.88</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1073</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>501022</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>银华鑫盛灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>73.06</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1062</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>003751</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>万家瑞隆混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>81.33</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0961</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>159827</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>银华中证农业主题ETF</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>97.89</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0791</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>516670</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>招商中证畜牧养殖ETF</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>96.88</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>6.45</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0381</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -11683,26 +15820,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>33.99</t>
+          <t>30.15</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.75</t>
+          <t>94.18</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.66</t>
+          <t>8.62</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.2834</t>
+          <t>2.5989</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -11721,26 +15858,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>29.34</t>
+          <t>25.74</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.66</t>
+          <t>94.35</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.27</t>
+          <t>8.19</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.7198</t>
+          <t>2.1081</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -11759,26 +15896,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>22.69</t>
+          <t>21.08</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.61</t>
+          <t>84.27</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.51</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.4771</t>
+          <t>1.0414</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -11787,36 +15924,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>519196</t>
+          <t>005106</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>万家新兴蓝筹灵活配置混合</t>
+          <t>银华农业产业股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>15.42</t>
+          <t>11.27</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.27</t>
+          <t>82.20</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.80</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.8944</t>
+          <t>0.5511</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -11825,36 +15962,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005106</t>
+          <t>159825</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>银华农业产业股票</t>
+          <t>富国中证农业主题ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>11.64</t>
+          <t>17.75</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>84.76</t>
+          <t>99.10</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.5610</t>
+          <t>0.4881</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -11863,36 +16000,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>180020</t>
+          <t>159865</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>银华成长先锋混合</t>
+          <t>国泰中证畜牧养殖ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>79.48</t>
+          <t>98.45</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>8.14</t>
+          <t>7.02</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.3077</t>
+          <t>0.3117</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -11901,36 +16038,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>159825</t>
+          <t>161834</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>富国中证农业主题ETF</t>
+          <t>银华鑫锐灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>10.30</t>
+          <t>6.61</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>98.80</t>
+          <t>74.94</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2853</t>
+          <t>0.2717</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -11939,36 +16076,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001027</t>
+          <t>159867</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>前海开源中证大农业指数增强</t>
+          <t>鹏华中证畜牧养殖ETF</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>6.87</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.63</t>
+          <t>97.08</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>6.99</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.2453</t>
+          <t>0.2628</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -11977,36 +16114,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>003751</t>
+          <t>180020</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>万家瑞隆混合</t>
+          <t>银华成长先锋混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.01</t>
+          <t>78.83</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>7.09</t>
+          <t>6.68</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1064</t>
+          <t>0.2485</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -12015,36 +16152,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001940</t>
+          <t>010769</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>农银汇理现代农业加灵活配置混合</t>
+          <t>天弘中证农业主题指数A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>6.21</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>76.81</t>
+          <t>94.81</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.14</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0792</t>
+          <t>0.1633</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -12053,36 +16190,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>010769</t>
+          <t>010770</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>天弘中证农业主题指数A</t>
+          <t>天弘中证农业主题指数C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>5.23</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>93.95</t>
+          <t>94.81</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0747</t>
+          <t>0.1375</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -12091,36 +16228,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>159827</t>
+          <t>516760</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>银华中证农业主题ETF</t>
+          <t>平安中证畜牧养殖ETF</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>97.76</t>
+          <t>96.02</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>6.88</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0734</t>
+          <t>0.1073</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -12129,36 +16266,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>010770</t>
+          <t>501022</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>天弘中证农业主题指数C</t>
+          <t>银华鑫盛灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>93.95</t>
+          <t>73.06</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0590</t>
+          <t>0.1062</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -12167,36 +16304,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>009336</t>
+          <t>003751</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>平安中证500指数增强A</t>
+          <t>万家瑞隆混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>81.33</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0027</t>
+          <t>0.0961</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -12205,32 +16342,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>009337</t>
+          <t>159827</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>平安中证500指数增强C</t>
+          <t>银华中证农业主题ETF</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>97.89</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0013</t>
+          <t>0.0791</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -12243,36 +16380,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>009339</t>
+          <t>516670</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>万家民瑞祥和6个月持有期债券C</t>
+          <t>招商中证畜牧养殖ETF</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>96.88</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>6.45</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0006</t>
+          <t>0.0381</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -12286,83 +16423,83 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>基金金额</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009394</t>
+          <t>161810</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银华同力精选混合</t>
+          <t>银华内需精选混合(LOF)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>67.71</t>
+          <t>33.99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.60</t>
+          <t>94.75</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.84</t>
+          <t>9.66</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>6.6627</t>
+          <t>3.2834</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -12370,37 +16507,37 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>161810</t>
+          <t>009394</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>银华内需精选混合(LOF)</t>
+          <t>银华同力精选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>60.57</t>
+          <t>29.34</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.76</t>
+          <t>94.66</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.82</t>
+          <t>9.27</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>5.9480</t>
+          <t>2.7198</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -12408,7 +16545,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -12423,108 +16560,108 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>28.22</t>
+          <t>22.69</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.61</t>
+          <t>91.61</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.41</t>
+          <t>6.51</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.5267</t>
+          <t>1.4771</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>519196</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家新兴蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8944</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>005106</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>银华农业产业股票</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>13.59</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>82.36</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.11</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.6944</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5610</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>519918</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华夏兴和混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>7.71</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.60</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>8.78</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.6769</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>180020</t>
@@ -12537,22 +16674,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>3.78</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>78.07</t>
+          <t>79.48</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>9.49</t>
+          <t>8.14</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.4119</t>
+          <t>0.3077</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -12560,341 +16697,341 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>159825</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2853</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>001027</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>前海开源中证大农业指数增强</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>8.15</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2453</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003751</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1064</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001940</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>农银汇理现代农业加灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>76.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010769</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>93.95</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.3342</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001195</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>工银瑞信农业产业股票</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>10.21</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>88.44</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.3186</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0747</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>003165</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>鹏华弘嘉灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>7.73</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>89.32</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.2226</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159827</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银华中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>97.76</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009230</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>鹏华安和混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>7.54</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>34.97</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1214</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010770</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009336</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>009667</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>鹏华安庆混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>7.28</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>35.62</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1158</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>001940</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>农银汇理现代农业加灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.28</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0747</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005416</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>鹏华尊惠18个月定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>34.90</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0615</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>003751</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>万家瑞隆混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>91.42</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>6.71</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0382</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="A16" s="2" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>003626</t>
+          <t>009337</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>平安鑫利灵活配置混合A</t>
+          <t>平安中证500指数增强C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>5.94</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>21.51</t>
+          <t>94.41</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0380</t>
+          <t>0.0013</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -12902,728 +17039,44 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
+      <c r="A17" s="2" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>004475</t>
+          <t>009339</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>华泰柏瑞富利灵活配置混合</t>
+          <t>万家民瑞祥和6个月持有期债券C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>94.68</t>
+          <t>94.41</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0357</t>
+          <t>0.0006</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>002076</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>浙商中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>88.81</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0342</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>009231</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>鹏华安和混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>34.97</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0225</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>006433</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>平安鑫利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>21.51</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0165</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>005417</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>鹏华尊惠18个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>34.90</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0162</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>008778</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>嘉实中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>91.61</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0145</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>009668</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>鹏华安庆混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>35.62</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0118</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>700004</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>平安灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>77.44</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0093</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>003175</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>华泰柏瑞多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>94.81</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0068</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>006783</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>红土创新中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>94.06</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0063</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>002598</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>平安消费精选混合A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>90.92</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0059</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>007386</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>浙商中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>88.81</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0047</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>008779</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>嘉实中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>91.61</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0043</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>005607</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>华宝中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0042</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>159932</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>大成中证500深市ETF</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>98.44</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0035</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>002599</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>平安消费精选混合C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>90.92</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0032</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>003166</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>鹏华弘嘉灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>89.32</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0026</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>005608</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>华宝中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>006784</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>红土创新中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>94.06</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>